--- a/vignettes/supplement_files/sfile_S5.xlsx
+++ b/vignettes/supplement_files/sfile_S5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlotte\Documents\candidaev\vignettes\supplement_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B16AA4-F36D-4C32-9C00-02B02983E97A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A424B8-737E-4225-9FD8-8778067AD29E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="1617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="1618">
   <si>
     <t>Accession</t>
   </si>
@@ -4874,13 +4874,39 @@
   </si>
   <si>
     <t>Cluster</t>
+  </si>
+  <si>
+    <r>
+      <t>This sheet shows the names and log</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FC values (EV versus WCL) of proteins present in each heatmap cluster (Figure 6).</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4890,6 +4916,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -5266,11 +5300,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I405"/>
+  <dimension ref="A1:I405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5281,6 +5315,11 @@
     <col min="5" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>1617</v>
+      </c>
+    </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
